--- a/IT_BDM/WebRoot/files/import/xtz/二级站点资料.xlsx
+++ b/IT_BDM/WebRoot/files/import/xtz/二级站点资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8556"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>申请时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,34 @@
   </si>
   <si>
     <t>一级网点名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东深圳公司宝安区建安分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李展羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建安分部俞海龙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东深圳公司罗湖区草埔分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王柯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草埔分部王远恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上是示例数据，请在使用该模板时删除即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,10 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,15 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
     <col min="7" max="10" width="15.77734375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
@@ -432,6 +467,63 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>42725</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42725</v>
+      </c>
+      <c r="C2" s="1">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5183211</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>51816520</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>42038</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42038</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>518353</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>51835320</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
